--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -10,7 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -60,12 +59,6 @@
     <t xml:space="preserve">LogInResult</t>
   </si>
   <si>
-    <t xml:space="preserve">$NAME_SPACE$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teMpaneCommon.Packet</t>
-  </si>
-  <si>
     <t xml:space="preserve">$ENUM$</t>
   </si>
   <si>
@@ -91,18 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">Uuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacketHoge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$BASE_CLASS_NAME$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PacketBase</t>
   </si>
 </sst>
 </file>
@@ -284,10 +265,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,29 +300,32 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -354,68 +338,6 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t xml:space="preserve">LogInRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$BASE_CLASS$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketBase</t>
   </si>
   <si>
     <t xml:space="preserve">$INCLUDE$</t>
@@ -193,10 +199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -232,21 +238,29 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -265,10 +279,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -282,7 +296,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -290,54 +304,62 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">LogInRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">$BASE_CLASS$</t>
+    <t xml:space="preserve">$BASE_CLASS_NAME$</t>
   </si>
   <si>
     <t xml:space="preserve">PacketBase</t>
@@ -201,8 +201,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,8 +281,8 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">PacketBase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$INCLUDE$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlexArray.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoge.h</t>
   </si>
   <si>
     <t xml:space="preserve">$MEMBER$</t>
@@ -199,10 +190,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,24 +234,8 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -281,7 +256,7 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -296,7 +271,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,7 +279,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,49 +292,49 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ログインリクエスト結果" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="キャラクタパラメータ" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -81,6 +82,27 @@
   </si>
   <si>
     <t xml:space="preserve">Uuid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketCharacterStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp</t>
   </si>
 </sst>
 </file>
@@ -192,7 +214,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -346,4 +368,112 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">CharacterStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">Hp</t>
@@ -215,7 +218,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,7 +282,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="4:4 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,10 +378,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -417,10 +420,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -465,6 +468,17 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -66,10 +66,10 @@
     <t xml:space="preserve">Success</t>
   </si>
   <si>
+    <t xml:space="preserve">DoubleLogIn</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0x02</t>
   </si>
   <si>
     <t xml:space="preserve">u8</t>
@@ -218,7 +218,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,10 +279,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="4:4 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -336,19 +336,16 @@
       <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,9 +353,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -380,8 +388,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="4:4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -84,13 +84,16 @@
     <t xml:space="preserve">Uuid</t>
   </si>
   <si>
+    <t xml:space="preserve">u32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastAreaId</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketCharacterStatus</t>
   </si>
   <si>
     <t xml:space="preserve">CharacterStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">Hp</t>
@@ -218,7 +221,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A9:C9 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -279,10 +282,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -368,6 +371,17 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -389,7 +403,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="A9:C9 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -404,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>19</v>
@@ -442,7 +456,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,7 +467,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,7 +478,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,7 +489,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ログインリクエスト結果" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="キャラクタパラメータ" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="キャラクタ作成リクエスト" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="キャラクタ作成結果" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="キャラクタパラメータ" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -69,6 +71,9 @@
     <t xml:space="preserve">DoubleLogIn</t>
   </si>
   <si>
+    <t xml:space="preserve">NoCharacter</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error</t>
   </si>
   <si>
@@ -88,6 +93,24 @@
   </si>
   <si>
     <t xml:space="preserve">LastAreaId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketCreateCharacterRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateCharacterRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketCreateCharacterResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreateCharacterResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TooLongName</t>
   </si>
   <si>
     <t xml:space="preserve">PacketCharacterStatus</t>
@@ -221,7 +244,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A9:C9 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -282,10 +305,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,13 +376,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,21 +390,32 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -400,10 +434,169 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="A9:C9 C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -418,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,10 +646,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,10 +657,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,10 +679,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,10 +690,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t xml:space="preserve">CreateCharacterRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$INCLUDE$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StringPack.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StringPack&lt;32&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">CharacterName</t>
@@ -434,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -472,13 +481,21 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -499,7 +516,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -514,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -552,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,7 +666,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,7 +677,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +699,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">TooLongName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmptyName</t>
   </si>
   <si>
     <t xml:space="preserve">PacketCharacterStatus</t>
@@ -253,7 +256,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="6:6 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,7 +320,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="6:6 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -445,8 +448,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="6:6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -514,10 +517,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="6:6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -580,17 +583,28 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -613,7 +627,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="6:6 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,7 +680,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,7 +713,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -710,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -99,15 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">CreateCharacterRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$INCLUDE$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StringPack.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StringPack&lt;32&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">CharacterName</t>
@@ -256,7 +247,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="6:6 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -320,7 +311,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="6:6 D7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -446,10 +437,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="6:6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,21 +475,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -519,8 +502,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="6:6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -534,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,7 +610,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="6:6 C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -642,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,7 +663,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">CharacterStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Hp</t>
@@ -439,7 +442,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -607,10 +610,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -660,9 +663,9 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -708,6 +711,17 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t xml:space="preserve">CharacterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job</t>
   </si>
   <si>
     <t xml:space="preserve">PacketCreateCharacterResult</t>
@@ -440,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -485,6 +488,17 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,10 +624,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -628,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -666,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,10 +688,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,6 +736,17 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">Exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold</t>
   </si>
 </sst>
 </file>
@@ -624,10 +627,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -749,6 +752,17 @@
         <v>38</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
   </si>
   <si>
     <t xml:space="preserve">Hp</t>
@@ -627,10 +630,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -702,9 +705,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -753,14 +756,25 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>39</v>
+      <c r="C13" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">UserCode</t>
   </si>
   <si>
+    <t xml:space="preserve">ユーザコード</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketLogInResult</t>
   </si>
   <si>
@@ -68,33 +71,54 @@
     <t xml:space="preserve">Success</t>
   </si>
   <si>
+    <t xml:space="preserve">成功</t>
+  </si>
+  <si>
     <t xml:space="preserve">DoubleLogIn</t>
   </si>
   <si>
+    <t xml:space="preserve">ダブルログイン</t>
+  </si>
+  <si>
     <t xml:space="preserve">NoCharacter</t>
   </si>
   <si>
+    <t xml:space="preserve">キャラクタが存在しない</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error</t>
   </si>
   <si>
+    <t xml:space="preserve">エラー</t>
+  </si>
+  <si>
     <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">Result</t>
   </si>
   <si>
+    <t xml:space="preserve">結果</t>
+  </si>
+  <si>
     <t xml:space="preserve">s32</t>
   </si>
   <si>
     <t xml:space="preserve">Uuid</t>
   </si>
   <si>
+    <t xml:space="preserve">UUID</t>
+  </si>
+  <si>
     <t xml:space="preserve">u32</t>
   </si>
   <si>
     <t xml:space="preserve">LastAreaId</t>
   </si>
   <si>
+    <t xml:space="preserve">最終ログアウトエリアＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketCreateCharacterRequest</t>
   </si>
   <si>
@@ -104,9 +128,15 @@
     <t xml:space="preserve">CharacterName</t>
   </si>
   <si>
+    <t xml:space="preserve">キャラクタ名</t>
+  </si>
+  <si>
     <t xml:space="preserve">Job</t>
   </si>
   <si>
+    <t xml:space="preserve">ジョブ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketCreateCharacterResult</t>
   </si>
   <si>
@@ -116,9 +146,15 @@
     <t xml:space="preserve">TooLongName</t>
   </si>
   <si>
+    <t xml:space="preserve">長すぎる名前</t>
+  </si>
+  <si>
     <t xml:space="preserve">EmptyName</t>
   </si>
   <si>
+    <t xml:space="preserve">名前が空欄</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketCharacterStatus</t>
   </si>
   <si>
@@ -128,25 +164,49 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">名前</t>
+  </si>
+  <si>
     <t xml:space="preserve">Level</t>
   </si>
   <si>
+    <t xml:space="preserve">レベル</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hp</t>
   </si>
   <si>
+    <t xml:space="preserve">HP</t>
+  </si>
+  <si>
     <t xml:space="preserve">MaxHp</t>
   </si>
   <si>
+    <t xml:space="preserve">最大HP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Atk</t>
   </si>
   <si>
+    <t xml:space="preserve">攻撃力</t>
+  </si>
+  <si>
     <t xml:space="preserve">Def</t>
   </si>
   <si>
+    <t xml:space="preserve">防御力</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exp</t>
   </si>
   <si>
+    <t xml:space="preserve">経験値</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴールド</t>
   </si>
 </sst>
 </file>
@@ -256,10 +316,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,6 +362,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -320,10 +383,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -337,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,46 +421,58 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,10 +480,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -416,10 +494,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,10 +508,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -449,10 +533,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -466,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,7 +577,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,10 +588,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -523,10 +613,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -540,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,46 +651,58 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,10 +710,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -630,10 +735,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,10 +777,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,7 +794,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -694,10 +805,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,10 +819,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -716,10 +833,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,10 +847,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,10 +861,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,10 +875,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -760,10 +889,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,10 +903,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>59</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -185,16 +185,34 @@
     <t xml:space="preserve">最大HP</t>
   </si>
   <si>
-    <t xml:space="preserve">Atk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">攻撃力</t>
+    <t xml:space="preserve">Str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STR</t>
   </si>
   <si>
     <t xml:space="preserve">Def</t>
   </si>
   <si>
-    <t xml:space="preserve">防御力</t>
+    <t xml:space="preserve">DEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIT</t>
   </si>
   <si>
     <t xml:space="preserve">Exp</t>
@@ -735,10 +753,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -833,7 +851,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>49</v>
@@ -847,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>51</v>
@@ -861,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>53</v>
@@ -875,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
@@ -889,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>57</v>
@@ -899,17 +917,59 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t xml:space="preserve">ゴールド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RightEquip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">右手装備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeftEquip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">左手装備</t>
   </si>
 </sst>
 </file>
@@ -753,10 +765,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -972,6 +984,34 @@
         <v>66</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t xml:space="preserve">最大HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaseMaxHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基礎最大ＨＰ</t>
   </si>
   <si>
     <t xml:space="preserve">Str</t>
@@ -765,10 +771,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -971,13 +977,13 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="0" t="s">
@@ -1010,6 +1016,20 @@
       </c>
       <c r="D18" s="0" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログインリクエスト" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t xml:space="preserve">キャラクタが存在しない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ＢＡＮされている</t>
   </si>
   <si>
     <t xml:space="preserve">Error</t>
@@ -419,10 +425,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,16 +519,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,27 +536,41 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>30</v>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,10 +633,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,13 +644,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,10 +741,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,10 +755,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +793,7 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -789,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -797,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,13 +833,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,10 +850,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,13 +861,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,13 +875,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,13 +889,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,13 +903,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,13 +917,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,13 +931,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,13 +945,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,13 +959,13 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,13 +973,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,13 +987,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,13 +1001,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,13 +1015,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,13 +1029,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,13 +1043,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
